--- a/test-resources/data/TEST_LOGIN.xlsx
+++ b/test-resources/data/TEST_LOGIN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xxx\xxx\DU_AN_TOT_NGHIEP\Code_Ver2\GodEShop\test-resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xxx\xxx\DU_AN_TOT_NGHIEP\Code\GodEShop\test-resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA53760A-B2FE-46D4-BC49-28877901ABB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4177058-A437-4216-866A-11EFACC38382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A4B5B39-CC33-4760-8900-A900CBFB9788}"/>
+    <workbookView xWindow="255" yWindow="1155" windowWidth="15570" windowHeight="11295" xr2:uid="{3A4B5B39-CC33-4760-8900-A900CBFB9788}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Stt</t>
   </si>
@@ -49,15 +49,6 @@
     <t>user02</t>
   </si>
   <si>
-    <t>user01</t>
-  </si>
-  <si>
-    <t>user0199</t>
-  </si>
-  <si>
-    <t>user999</t>
-  </si>
-  <si>
     <t>pppp</t>
   </si>
   <si>
@@ -68,13 +59,28 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>MatKhau@123</t>
+  </si>
+  <si>
+    <t>MatKhau</t>
+  </si>
+  <si>
+    <t>cust02</t>
+  </si>
+  <si>
+    <t>cus12345</t>
+  </si>
+  <si>
+    <t>cust1102</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +92,14 @@
       <b/>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,17 +128,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,11 +456,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864278E6-2853-460C-9856-6572FC9D53B3}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -464,13 +486,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>123</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -478,13 +500,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -492,13 +514,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -506,13 +528,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
-        <v>125</v>
+        <v>12345</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -520,13 +542,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,7 +556,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,7 +567,7 @@
         <v>123</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,10 +586,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -575,13 +597,17 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0B01D5F9-ADDB-4030-8A3C-02DB3060F884}"/>
+    <hyperlink ref="C3" r:id="rId2" display="MatKhau@123" xr:uid="{5162C295-33D4-4991-A840-04BAC34EDA25}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test-resources/data/TEST_LOGIN.xlsx
+++ b/test-resources/data/TEST_LOGIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xxx\xxx\DU_AN_TOT_NGHIEP\Code\GodEShop\test-resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4177058-A437-4216-866A-11EFACC38382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80A7914-2A04-4148-AD85-5182780410B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="1155" windowWidth="15570" windowHeight="11295" xr2:uid="{3A4B5B39-CC33-4760-8900-A900CBFB9788}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A4B5B39-CC33-4760-8900-A900CBFB9788}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Stt</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>cust1102</t>
+  </si>
+  <si>
+    <t>cus01</t>
+  </si>
+  <si>
+    <t>MatKhau123</t>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864278E6-2853-460C-9856-6572FC9D53B3}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,13 +492,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -503,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -514,10 +520,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>124</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -528,10 +534,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>12345</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -542,10 +548,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>123</v>
+        <v>12345</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -555,6 +561,12 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>123</v>
+      </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
@@ -563,9 +575,6 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
-        <v>123</v>
-      </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -574,8 +583,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
+      <c r="C9" s="2">
+        <v>123</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -585,8 +594,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
+      <c r="B10" t="s">
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -596,17 +605,28 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{0B01D5F9-ADDB-4030-8A3C-02DB3060F884}"/>
-    <hyperlink ref="C3" r:id="rId2" display="MatKhau@123" xr:uid="{5162C295-33D4-4991-A840-04BAC34EDA25}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{0B01D5F9-ADDB-4030-8A3C-02DB3060F884}"/>
+    <hyperlink ref="C4" r:id="rId2" display="MatKhau@123" xr:uid="{5162C295-33D4-4991-A840-04BAC34EDA25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
